--- a/biology/Médecine/Maladie_immunitaire/Maladie_immunitaire.xlsx
+++ b/biology/Médecine/Maladie_immunitaire/Maladie_immunitaire.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,12 +490,14 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les maladies immunitaires, ou immunopathies[1], regroupent toutes les maladies affectant le système immunitaire. On en distingue deux groupes :
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les maladies immunitaires, ou immunopathies, regroupent toutes les maladies affectant le système immunitaire. On en distingue deux groupes :
 les maladies auto-immunes dites « autoinflammatoires » ;
-les déficits immunitaires, éventuellement d'origine génétique[2], ou « médiées »[3].
-Certaines maladies présentent toutefois des caractéristiques évoquant ces deux types de maladies (ex. :  cystite interstitielle, neuromyotonie, sclérodermie, vitiligo, vulvodynie, maladie de Behçet, maladie de Lyme[4], syndrome des poumons rétractés[5], maladie de Menière…). Il semble que certains microbes puissent en effet encourager l'organisme à s'attaquer lui-même.
+les déficits immunitaires, éventuellement d'origine génétique, ou « médiées ».
+Certaines maladies présentent toutefois des caractéristiques évoquant ces deux types de maladies (ex. :  cystite interstitielle, neuromyotonie, sclérodermie, vitiligo, vulvodynie, maladie de Behçet, maladie de Lyme, syndrome des poumons rétractés, maladie de Menière…). Il semble que certains microbes puissent en effet encourager l'organisme à s'attaquer lui-même.
 </t>
         </is>
       </c>
@@ -514,13 +526,15 @@
           <t>La recherche</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Elle porte notamment sur 
-le modèle animal, murin notamment[6] ;
-la thérapie génique[7] ;
-des facteurs de risque particuliers, dont par exemple l'exposition à la sicilice[8] ;
-les parasitoses à microorganismes se développant à l'intérieur des cellules (du nouveau-né notamment[9]).</t>
+le modèle animal, murin notamment ;
+la thérapie génique ;
+des facteurs de risque particuliers, dont par exemple l'exposition à la sicilice ;
+les parasitoses à microorganismes se développant à l'intérieur des cellules (du nouveau-né notamment).</t>
         </is>
       </c>
     </row>
